--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_device.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_device.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\MDB Change\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{80E7E8E4-1F1E-4E64-803D-93CFB5FE75BF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master-reg_center_device" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="9">
   <si>
     <t>regcntr_id</t>
   </si>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -885,10 +886,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:F146"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2912,7 +2915,908 @@
         <v>8</v>
       </c>
     </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>10002</v>
+      </c>
+      <c r="B102">
+        <v>3000121</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>10003</v>
+      </c>
+      <c r="B103">
+        <v>3000122</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>10004</v>
+      </c>
+      <c r="B104">
+        <v>3000123</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>10005</v>
+      </c>
+      <c r="B105">
+        <v>3000124</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>10006</v>
+      </c>
+      <c r="B106">
+        <v>3000125</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>10007</v>
+      </c>
+      <c r="B107">
+        <v>3000126</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>10008</v>
+      </c>
+      <c r="B108">
+        <v>3000127</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>10009</v>
+      </c>
+      <c r="B109">
+        <v>3000128</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>10010</v>
+      </c>
+      <c r="B110">
+        <v>3000129</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>10002</v>
+      </c>
+      <c r="B111">
+        <v>3000130</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>10003</v>
+      </c>
+      <c r="B112">
+        <v>3000131</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>10004</v>
+      </c>
+      <c r="B113">
+        <v>3000132</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>10005</v>
+      </c>
+      <c r="B114">
+        <v>3000133</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>10006</v>
+      </c>
+      <c r="B115">
+        <v>3000134</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>10007</v>
+      </c>
+      <c r="B116">
+        <v>3000135</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>10008</v>
+      </c>
+      <c r="B117">
+        <v>3000136</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>10009</v>
+      </c>
+      <c r="B118">
+        <v>3000137</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>10010</v>
+      </c>
+      <c r="B119">
+        <v>3000138</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>10002</v>
+      </c>
+      <c r="B120">
+        <v>3000139</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>10003</v>
+      </c>
+      <c r="B121">
+        <v>3000140</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>10004</v>
+      </c>
+      <c r="B122">
+        <v>3000141</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>10005</v>
+      </c>
+      <c r="B123">
+        <v>3000142</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="b">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>10006</v>
+      </c>
+      <c r="B124">
+        <v>3000143</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" t="b">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>10007</v>
+      </c>
+      <c r="B125">
+        <v>3000144</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>10008</v>
+      </c>
+      <c r="B126">
+        <v>3000145</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>10009</v>
+      </c>
+      <c r="B127">
+        <v>3000146</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" t="b">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>10010</v>
+      </c>
+      <c r="B128">
+        <v>3000147</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" t="b">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>10002</v>
+      </c>
+      <c r="B129">
+        <v>3000148</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" t="b">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>10003</v>
+      </c>
+      <c r="B130">
+        <v>3000149</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" t="b">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>10004</v>
+      </c>
+      <c r="B131">
+        <v>3000150</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" t="b">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>10005</v>
+      </c>
+      <c r="B132">
+        <v>3000151</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" t="b">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>10006</v>
+      </c>
+      <c r="B133">
+        <v>3000152</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>10007</v>
+      </c>
+      <c r="B134">
+        <v>3000153</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" t="b">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>10008</v>
+      </c>
+      <c r="B135">
+        <v>3000154</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="b">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>7</v>
+      </c>
+      <c r="F135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>10009</v>
+      </c>
+      <c r="B136">
+        <v>3000155</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" t="b">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>10010</v>
+      </c>
+      <c r="B137">
+        <v>3000156</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="b">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>7</v>
+      </c>
+      <c r="F137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>10002</v>
+      </c>
+      <c r="B138">
+        <v>3000157</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" t="b">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>10003</v>
+      </c>
+      <c r="B139">
+        <v>3000158</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" t="b">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>7</v>
+      </c>
+      <c r="F139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>10004</v>
+      </c>
+      <c r="B140">
+        <v>3000159</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" t="b">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>10005</v>
+      </c>
+      <c r="B141">
+        <v>3000160</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" t="b">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>7</v>
+      </c>
+      <c r="F141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>10006</v>
+      </c>
+      <c r="B142">
+        <v>3000161</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" t="b">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>10007</v>
+      </c>
+      <c r="B143">
+        <v>3000162</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="b">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>7</v>
+      </c>
+      <c r="F143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>10008</v>
+      </c>
+      <c r="B144">
+        <v>3000163</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="b">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>10009</v>
+      </c>
+      <c r="B145">
+        <v>3000164</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="b">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>10010</v>
+      </c>
+      <c r="B146">
+        <v>3000165</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="b">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_device.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_device.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{80E7E8E4-1F1E-4E64-803D-93CFB5FE75BF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DB9B4E14-9AE8-4E60-A415-E95FE3BC6DDD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="9">
   <si>
     <t>regcntr_id</t>
   </si>
@@ -887,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:F146"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3815,6 +3815,206 @@
         <v>8</v>
       </c>
     </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>10001</v>
+      </c>
+      <c r="B147">
+        <v>3000166</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="b">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>10001</v>
+      </c>
+      <c r="B148">
+        <v>3000167</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="b">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>10001</v>
+      </c>
+      <c r="B149">
+        <v>3000168</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" t="b">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>10001</v>
+      </c>
+      <c r="B150">
+        <v>3000169</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" t="b">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>10001</v>
+      </c>
+      <c r="B151">
+        <v>3000170</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" t="b">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>7</v>
+      </c>
+      <c r="F151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>10001</v>
+      </c>
+      <c r="B152">
+        <v>3000171</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" t="b">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>7</v>
+      </c>
+      <c r="F152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>10001</v>
+      </c>
+      <c r="B153">
+        <v>3000172</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" t="b">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>10001</v>
+      </c>
+      <c r="B154">
+        <v>3000173</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" t="b">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>7</v>
+      </c>
+      <c r="F154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>10001</v>
+      </c>
+      <c r="B155">
+        <v>3000174</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" t="b">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>7</v>
+      </c>
+      <c r="F155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>10001</v>
+      </c>
+      <c r="B156">
+        <v>3000175</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" t="b">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_device.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_device.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DB9B4E14-9AE8-4E60-A415-E95FE3BC6DDD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DE6DD46D-8A81-45FD-B0E2-09F57274F4EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="9">
   <si>
     <t>regcntr_id</t>
   </si>
@@ -887,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F156"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4015,6 +4015,106 @@
         <v>8</v>
       </c>
     </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>10002</v>
+      </c>
+      <c r="B157">
+        <v>3000176</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" t="b">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>7</v>
+      </c>
+      <c r="F157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>10002</v>
+      </c>
+      <c r="B158">
+        <v>3000177</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" t="b">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>7</v>
+      </c>
+      <c r="F158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>10002</v>
+      </c>
+      <c r="B159">
+        <v>3000178</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" t="b">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>7</v>
+      </c>
+      <c r="F159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>10002</v>
+      </c>
+      <c r="B160">
+        <v>3000179</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>10002</v>
+      </c>
+      <c r="B161">
+        <v>3000180</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" t="b">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>7</v>
+      </c>
+      <c r="F161" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_device.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_device.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\MDB Change\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DE6DD46D-8A81-45FD-B0E2-09F57274F4EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master-reg_center_device" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="9">
   <si>
     <t>regcntr_id</t>
   </si>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -885,10 +886,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2912,7 +2915,1208 @@
         <v>8</v>
       </c>
     </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>10002</v>
+      </c>
+      <c r="B102">
+        <v>3000121</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>10003</v>
+      </c>
+      <c r="B103">
+        <v>3000122</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>10004</v>
+      </c>
+      <c r="B104">
+        <v>3000123</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>10005</v>
+      </c>
+      <c r="B105">
+        <v>3000124</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>10006</v>
+      </c>
+      <c r="B106">
+        <v>3000125</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>10007</v>
+      </c>
+      <c r="B107">
+        <v>3000126</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>10008</v>
+      </c>
+      <c r="B108">
+        <v>3000127</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>10009</v>
+      </c>
+      <c r="B109">
+        <v>3000128</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>10010</v>
+      </c>
+      <c r="B110">
+        <v>3000129</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>10002</v>
+      </c>
+      <c r="B111">
+        <v>3000130</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>10003</v>
+      </c>
+      <c r="B112">
+        <v>3000131</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>10004</v>
+      </c>
+      <c r="B113">
+        <v>3000132</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>10005</v>
+      </c>
+      <c r="B114">
+        <v>3000133</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>10006</v>
+      </c>
+      <c r="B115">
+        <v>3000134</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>10007</v>
+      </c>
+      <c r="B116">
+        <v>3000135</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>10008</v>
+      </c>
+      <c r="B117">
+        <v>3000136</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>10009</v>
+      </c>
+      <c r="B118">
+        <v>3000137</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>10010</v>
+      </c>
+      <c r="B119">
+        <v>3000138</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>10002</v>
+      </c>
+      <c r="B120">
+        <v>3000139</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>10003</v>
+      </c>
+      <c r="B121">
+        <v>3000140</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>10004</v>
+      </c>
+      <c r="B122">
+        <v>3000141</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>10005</v>
+      </c>
+      <c r="B123">
+        <v>3000142</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="b">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>10006</v>
+      </c>
+      <c r="B124">
+        <v>3000143</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" t="b">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>10007</v>
+      </c>
+      <c r="B125">
+        <v>3000144</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>10008</v>
+      </c>
+      <c r="B126">
+        <v>3000145</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>10009</v>
+      </c>
+      <c r="B127">
+        <v>3000146</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" t="b">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>10010</v>
+      </c>
+      <c r="B128">
+        <v>3000147</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" t="b">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>10002</v>
+      </c>
+      <c r="B129">
+        <v>3000148</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" t="b">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>10003</v>
+      </c>
+      <c r="B130">
+        <v>3000149</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" t="b">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>10004</v>
+      </c>
+      <c r="B131">
+        <v>3000150</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" t="b">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>10005</v>
+      </c>
+      <c r="B132">
+        <v>3000151</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" t="b">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>10006</v>
+      </c>
+      <c r="B133">
+        <v>3000152</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>10007</v>
+      </c>
+      <c r="B134">
+        <v>3000153</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" t="b">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>10008</v>
+      </c>
+      <c r="B135">
+        <v>3000154</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="b">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>7</v>
+      </c>
+      <c r="F135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>10009</v>
+      </c>
+      <c r="B136">
+        <v>3000155</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" t="b">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>10010</v>
+      </c>
+      <c r="B137">
+        <v>3000156</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="b">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>7</v>
+      </c>
+      <c r="F137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>10002</v>
+      </c>
+      <c r="B138">
+        <v>3000157</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" t="b">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>10003</v>
+      </c>
+      <c r="B139">
+        <v>3000158</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" t="b">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>7</v>
+      </c>
+      <c r="F139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>10004</v>
+      </c>
+      <c r="B140">
+        <v>3000159</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" t="b">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>10005</v>
+      </c>
+      <c r="B141">
+        <v>3000160</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" t="b">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>7</v>
+      </c>
+      <c r="F141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>10006</v>
+      </c>
+      <c r="B142">
+        <v>3000161</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" t="b">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>10007</v>
+      </c>
+      <c r="B143">
+        <v>3000162</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="b">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>7</v>
+      </c>
+      <c r="F143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>10008</v>
+      </c>
+      <c r="B144">
+        <v>3000163</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="b">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>10009</v>
+      </c>
+      <c r="B145">
+        <v>3000164</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="b">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>10010</v>
+      </c>
+      <c r="B146">
+        <v>3000165</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="b">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>10001</v>
+      </c>
+      <c r="B147">
+        <v>3000166</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="b">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>10001</v>
+      </c>
+      <c r="B148">
+        <v>3000167</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="b">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>10001</v>
+      </c>
+      <c r="B149">
+        <v>3000168</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" t="b">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>10001</v>
+      </c>
+      <c r="B150">
+        <v>3000169</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" t="b">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>10001</v>
+      </c>
+      <c r="B151">
+        <v>3000170</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" t="b">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>7</v>
+      </c>
+      <c r="F151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>10001</v>
+      </c>
+      <c r="B152">
+        <v>3000171</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" t="b">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>7</v>
+      </c>
+      <c r="F152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>10001</v>
+      </c>
+      <c r="B153">
+        <v>3000172</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" t="b">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>10001</v>
+      </c>
+      <c r="B154">
+        <v>3000173</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" t="b">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>7</v>
+      </c>
+      <c r="F154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>10001</v>
+      </c>
+      <c r="B155">
+        <v>3000174</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" t="b">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>7</v>
+      </c>
+      <c r="F155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>10001</v>
+      </c>
+      <c r="B156">
+        <v>3000175</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" t="b">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>10002</v>
+      </c>
+      <c r="B157">
+        <v>3000176</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" t="b">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>7</v>
+      </c>
+      <c r="F157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>10002</v>
+      </c>
+      <c r="B158">
+        <v>3000177</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" t="b">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>7</v>
+      </c>
+      <c r="F158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>10002</v>
+      </c>
+      <c r="B159">
+        <v>3000178</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" t="b">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>7</v>
+      </c>
+      <c r="F159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>10002</v>
+      </c>
+      <c r="B160">
+        <v>3000179</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>10002</v>
+      </c>
+      <c r="B161">
+        <v>3000180</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" t="b">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>7</v>
+      </c>
+      <c r="F161" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_device.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_device.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DE6DD46D-8A81-45FD-B0E2-09F57274F4EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A549FEF7-49D1-4A7E-8A34-2BBE4F62A101}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -937,7 +937,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="B3">
         <v>3000022</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="B23">
         <v>3000042</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="B43">
         <v>3000062</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="B63">
         <v>3000082</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="B83">
         <v>3000102</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B105">
         <v>3000124</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B114">
         <v>3000133</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B123">
         <v>3000142</v>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B132">
         <v>3000151</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B141">
         <v>3000160</v>
